--- a/Day01/LAB01MT.xlsx
+++ b/Day01/LAB01MT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\gitRepo\DATA101\Day01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FCCE3DA-4107-498D-9BE4-FB3E6B8B656C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65B450D7-65AC-49F3-A53B-726B5EAC9AF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basketball Game Sales" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -149,8 +149,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -287,14 +288,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3003,7 +3004,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DC91F97-7C2C-4D19-B2F1-933144115138}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DC91F97-7C2C-4D19-B2F1-933144115138}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -3401,15 +3402,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="9"/>
+    <col min="5" max="5" width="11" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,7 +3426,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -3445,7 +3446,7 @@
       <c r="D2" s="1">
         <v>0.5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
       <c r="F2">
@@ -3455,191 +3456,191 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E3" s="13">
         <v>2</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(A3, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="13">
         <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(A4, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.5</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(A5, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2.5</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(A6, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(A7, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>0.5</v>
       </c>
-      <c r="E8" s="9">
-        <v>2</v>
+      <c r="E8" s="13">
+        <v>1.5</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(A8, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="13">
         <v>2</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(A9, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1.5</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(A10, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="13">
         <v>2</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(A11, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3655,7 +3656,7 @@
       <c r="D12" s="1">
         <v>0.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="13">
         <v>2</v>
       </c>
       <c r="F12">
@@ -3665,107 +3666,107 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(A13, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
       </c>
-      <c r="E14" s="9">
-        <v>2</v>
+      <c r="E14" s="13">
+        <v>1</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(A14, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>0.5</v>
       </c>
-      <c r="E15" s="9">
-        <v>2</v>
+      <c r="E15" s="13">
+        <v>1.5</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(A15, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>0.5</v>
       </c>
-      <c r="E16" s="9">
-        <v>2</v>
+      <c r="E16" s="13">
+        <v>1.5</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(A16, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.5</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(A17, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3781,7 +3782,7 @@
       <c r="D18" s="1">
         <v>0.5</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="13">
         <v>2</v>
       </c>
       <c r="F18">
@@ -3791,23 +3792,23 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="13">
         <v>2</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(A19, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,7 +3824,7 @@
       <c r="D20" s="1">
         <v>0.5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="13">
         <v>2</v>
       </c>
       <c r="F20">
@@ -3833,301 +3834,301 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E21" s="13">
         <v>2</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(A21, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(A22, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(A23, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(A24, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.5</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(A25, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.5</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(A26, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1.5</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(A27, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1.5</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(A28, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E29" s="9">
-        <v>2.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(A29, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2</v>
       </c>
       <c r="F30">
         <f>VLOOKUP(A30, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.5</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(A31, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D32" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2</v>
       </c>
       <c r="F32">
         <f>VLOOKUP(A32, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E33" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
       </c>
       <c r="F33">
         <f>VLOOKUP(A33, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1.5</v>
       </c>
       <c r="F34">
         <f>VLOOKUP(A34, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -4136,98 +4137,98 @@
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
       </c>
       <c r="F35">
         <f>VLOOKUP(A35, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="13">
         <v>1.5</v>
       </c>
       <c r="F36">
         <f>VLOOKUP(A36, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2.5</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(A37, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2.5</v>
       </c>
       <c r="F38">
         <f>VLOOKUP(A38, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="13">
+        <v>4</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(A39, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,7 +4244,7 @@
       <c r="D40" s="1">
         <v>0.75</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="13">
         <v>1.5</v>
       </c>
       <c r="F40">
@@ -4253,28 +4254,28 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="13">
         <v>1.5</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(A41, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -4283,56 +4284,56 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(A42, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
       </c>
       <c r="F43">
         <f>VLOOKUP(A43, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D44" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(A44, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4348,7 +4349,7 @@
       <c r="D45" s="1">
         <v>0.75</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="13">
         <v>1.5</v>
       </c>
       <c r="F45">
@@ -4358,44 +4359,44 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2">
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.5</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(A46, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(A47, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4411,7 +4412,7 @@
       <c r="D48" s="1">
         <v>0.5</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="13">
         <v>1.5</v>
       </c>
       <c r="F48">
@@ -4421,31 +4422,31 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>0.5</v>
       </c>
-      <c r="E49" s="9">
-        <v>1.5</v>
+      <c r="E49" s="13">
+        <v>1</v>
       </c>
       <c r="F49">
         <f>VLOOKUP(A49, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2">
         <v>3</v>
@@ -4453,117 +4454,117 @@
       <c r="D50" s="1">
         <v>0.5</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="13">
         <v>1.5</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(A50, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="9">
-        <v>1.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E51" s="13">
+        <v>4</v>
       </c>
       <c r="F51">
         <f>VLOOKUP(A51, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E52" s="13">
         <v>1.5</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(A52, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(A53, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E54" s="13">
+        <v>4</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(A54, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
         <v>0.5</v>
       </c>
-      <c r="E55" s="9">
-        <v>1.5</v>
+      <c r="E55" s="13">
+        <v>2</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(A55, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4579,7 +4580,7 @@
       <c r="D56" s="1">
         <v>0.5</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="13">
         <v>1.5</v>
       </c>
       <c r="F56">
@@ -4589,19 +4590,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <v>0.5</v>
       </c>
-      <c r="E57" s="9">
-        <v>1.5</v>
+      <c r="E57" s="13">
+        <v>1</v>
       </c>
       <c r="F57">
         <f>VLOOKUP(A57, Calories!$A$1:$B$15,2, FALSE)</f>
@@ -4610,49 +4611,49 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
         <v>0.5</v>
       </c>
-      <c r="E58" s="9">
-        <v>1.5</v>
+      <c r="E58" s="13">
+        <v>1</v>
       </c>
       <c r="F58">
         <f>VLOOKUP(A58, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
         <v>0.5</v>
       </c>
-      <c r="E59" s="9">
-        <v>1</v>
+      <c r="E59" s="13">
+        <v>2</v>
       </c>
       <c r="F59">
         <f>VLOOKUP(A59, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -4663,117 +4664,117 @@
       <c r="D60" s="1">
         <v>0.5</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="13">
         <v>1</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(A60, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
         <v>0.5</v>
       </c>
-      <c r="E61" s="9">
-        <v>1</v>
+      <c r="E61" s="13">
+        <v>2</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(A61, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D62" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E62" s="13">
+        <v>2</v>
       </c>
       <c r="F62">
         <f>VLOOKUP(A62, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D63" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E63" s="13">
         <v>1</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(A63, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.5</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(A64, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D65" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E65" s="13">
+        <v>2</v>
       </c>
       <c r="F65">
         <f>VLOOKUP(A65, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4789,7 +4790,7 @@
       <c r="D66" s="1">
         <v>0.5</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="13">
         <v>1</v>
       </c>
       <c r="F66">
@@ -4799,19 +4800,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>0.5</v>
       </c>
-      <c r="E67" s="9">
-        <v>1</v>
+      <c r="E67" s="13">
+        <v>1.5</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(A67, Calories!$A$1:$B$15,2, FALSE)</f>
@@ -4820,28 +4821,28 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D68" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E68" s="13">
+        <v>2</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(A68, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -4850,52 +4851,52 @@
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1.5</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(A69, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" s="1">
         <v>0.5</v>
       </c>
-      <c r="E70" s="9">
-        <v>1</v>
+      <c r="E70" s="13">
+        <v>2</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(A70, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>0.5</v>
       </c>
-      <c r="E71" s="9">
-        <v>1</v>
+      <c r="E71" s="13">
+        <v>1.5</v>
       </c>
       <c r="F71">
         <f>VLOOKUP(A71, Calories!$A$1:$B$15,2, FALSE)</f>
@@ -4904,28 +4905,28 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1">
         <v>0.5</v>
       </c>
-      <c r="E72" s="9">
-        <v>1</v>
+      <c r="E72" s="13">
+        <v>2</v>
       </c>
       <c r="F72">
         <f>VLOOKUP(A72, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -4934,19 +4935,19 @@
         <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E73" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1.5</v>
       </c>
       <c r="F73">
         <f>VLOOKUP(A73, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -4955,19 +4956,19 @@
         <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E74" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1.5</v>
       </c>
       <c r="F74">
         <f>VLOOKUP(A74, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -4976,98 +4977,98 @@
         <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E75" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1.5</v>
       </c>
       <c r="F75">
         <f>VLOOKUP(A75, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E76" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
       </c>
       <c r="F76">
         <f>VLOOKUP(A76, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D77" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E77" s="9">
-        <v>2</v>
+      <c r="E77" s="13">
+        <v>1</v>
       </c>
       <c r="F77">
         <f>VLOOKUP(A77, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E78" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0.5</v>
       </c>
       <c r="F78">
         <f>VLOOKUP(A78, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C79" s="2">
         <v>3</v>
       </c>
       <c r="D79" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E79" s="9">
-        <v>2</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E79" s="13">
+        <v>2.5</v>
       </c>
       <c r="F79">
         <f>VLOOKUP(A79, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,7 +5084,7 @@
       <c r="D80" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80">
@@ -5093,73 +5094,73 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2">
         <v>3</v>
       </c>
       <c r="D81" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E81" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1.5</v>
       </c>
       <c r="F81">
         <f>VLOOKUP(A81, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E82" s="9">
-        <v>2</v>
+        <v>0.8</v>
+      </c>
+      <c r="E82" s="13">
+        <v>4</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(A82, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D83" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E83" s="9">
-        <v>2</v>
+      <c r="E83" s="13">
+        <v>1</v>
       </c>
       <c r="F83">
         <f>VLOOKUP(A83, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
@@ -5167,117 +5168,117 @@
       <c r="D84" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="13">
         <v>2</v>
       </c>
       <c r="F84">
         <f>VLOOKUP(A84, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E85" s="9">
-        <v>2</v>
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1.5</v>
       </c>
       <c r="F85">
         <f>VLOOKUP(A85, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E86" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1</v>
       </c>
       <c r="F86">
         <f>VLOOKUP(A86, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E87" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E87" s="13">
         <v>2</v>
       </c>
       <c r="F87">
         <f>VLOOKUP(A87, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D88" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E88" s="9">
-        <v>2</v>
+      <c r="E88" s="13">
+        <v>1</v>
       </c>
       <c r="F88">
         <f>VLOOKUP(A88, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C89" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E89" s="9">
-        <v>1</v>
+      <c r="E89" s="13">
+        <v>2</v>
       </c>
       <c r="F89">
         <f>VLOOKUP(A89, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5293,7 +5294,7 @@
       <c r="D90" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90">
@@ -5303,107 +5304,107 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E91" s="9">
-        <v>1</v>
+      <c r="E91" s="13">
+        <v>2</v>
       </c>
       <c r="F91">
         <f>VLOOKUP(A91, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D92" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E92" s="13">
+        <v>2</v>
       </c>
       <c r="F92">
         <f>VLOOKUP(A92, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E93" s="13">
         <v>1.5</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E93" s="9">
-        <v>1</v>
       </c>
       <c r="F93">
         <f>VLOOKUP(A93, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E94" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94">
         <f>VLOOKUP(A94, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E95" s="9">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="E95" s="13">
+        <v>0.5</v>
       </c>
       <c r="F95">
         <f>VLOOKUP(A95, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,7 +5420,7 @@
       <c r="D96" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="F96">
@@ -5429,178 +5430,178 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C97" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E97" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97">
         <f>VLOOKUP(A97, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C98" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E98" s="9">
-        <v>1</v>
+      <c r="E98" s="13">
+        <v>2</v>
       </c>
       <c r="F98">
         <f>VLOOKUP(A98, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C99" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E99" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="13">
         <v>1</v>
       </c>
       <c r="F99">
         <f>VLOOKUP(A99, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2">
         <v>4</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1.5</v>
-      </c>
       <c r="D100" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="13">
+        <v>2</v>
       </c>
       <c r="F100">
         <f>VLOOKUP(A100, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E101" s="9">
-        <v>1</v>
+      <c r="E101" s="13">
+        <v>2</v>
       </c>
       <c r="F101">
         <f>VLOOKUP(A101, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="2">
         <v>4</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1.5</v>
-      </c>
       <c r="D102" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="13">
+        <v>2</v>
       </c>
       <c r="F102">
         <f>VLOOKUP(A102, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C103" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E103" s="9">
-        <v>1</v>
+      <c r="E103" s="13">
+        <v>2</v>
       </c>
       <c r="F103">
         <f>VLOOKUP(A103, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E104" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="13">
+        <v>1</v>
       </c>
       <c r="F104">
         <f>VLOOKUP(A104, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
         <v>3</v>
@@ -5608,41 +5609,41 @@
       <c r="D105" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="13">
         <v>2</v>
       </c>
       <c r="F105">
         <f>VLOOKUP(A105, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C106" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E106" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1</v>
       </c>
       <c r="F106">
         <f>VLOOKUP(A106, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C107" s="2">
         <v>3</v>
@@ -5650,62 +5651,62 @@
       <c r="D107" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="F107">
         <f>VLOOKUP(A107, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C108" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D108" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E108" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E108" s="13">
         <v>2</v>
       </c>
       <c r="F108">
         <f>VLOOKUP(A108, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C109" s="2">
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E109" s="9">
-        <v>2</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E109" s="13">
+        <v>2.5</v>
       </c>
       <c r="F109">
         <f>VLOOKUP(A109, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C110" s="2">
         <v>3</v>
@@ -5713,12 +5714,12 @@
       <c r="D110" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="13">
         <v>2</v>
       </c>
       <c r="F110">
         <f>VLOOKUP(A110, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5734,7 +5735,7 @@
       <c r="D111" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="13">
         <v>2</v>
       </c>
       <c r="F111">
@@ -5744,212 +5745,212 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E112" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1</v>
       </c>
       <c r="F112">
         <f>VLOOKUP(A112, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C113" s="2">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E113" s="9">
-        <v>2</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E113" s="13">
+        <v>2.5</v>
       </c>
       <c r="F113">
         <f>VLOOKUP(A113, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D114" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E114" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="13">
         <v>1</v>
       </c>
       <c r="F114">
         <f>VLOOKUP(A114, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D115" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E115" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E115" s="13">
+        <v>2</v>
       </c>
       <c r="F115">
         <f>VLOOKUP(A115, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E116" s="9">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="E116" s="13">
+        <v>0.5</v>
       </c>
       <c r="F116">
         <f>VLOOKUP(A116, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E117" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E117" s="13">
+        <v>4</v>
       </c>
       <c r="F117">
         <f>VLOOKUP(A117, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D118" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E118" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E118" s="13">
+        <v>4</v>
       </c>
       <c r="F118">
         <f>VLOOKUP(A118, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E119" s="9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2</v>
       </c>
       <c r="F119">
         <f>VLOOKUP(A119, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E120" s="13">
+        <v>4</v>
       </c>
       <c r="F120">
         <f>VLOOKUP(A120, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E121" s="9">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E121" s="13">
+        <v>2.5</v>
       </c>
       <c r="F121">
         <f>VLOOKUP(A121, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -5965,7 +5966,7 @@
       <c r="D122" s="1">
         <v>0.5</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="13">
         <v>1</v>
       </c>
       <c r="F122">
@@ -5975,212 +5976,212 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E123" s="9">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E123" s="13">
+        <v>2.5</v>
       </c>
       <c r="F123">
         <f>VLOOKUP(A123, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E124" s="9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E124" s="13">
+        <v>2</v>
       </c>
       <c r="F124">
         <f>VLOOKUP(A124, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
       </c>
       <c r="D125" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E125" s="9">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="E125" s="13">
+        <v>0.5</v>
       </c>
       <c r="F125">
         <f>VLOOKUP(A125, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
       </c>
       <c r="D126" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E126" s="9">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="E126" s="13">
+        <v>0.5</v>
       </c>
       <c r="F126">
         <f>VLOOKUP(A126, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E127" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E127" s="13">
+        <v>2</v>
       </c>
       <c r="F127">
         <f>VLOOKUP(A127, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="E128" s="13">
+        <v>0.5</v>
       </c>
       <c r="F128">
         <f>VLOOKUP(A128, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1">
         <v>0.5</v>
       </c>
-      <c r="E129" s="9">
-        <v>1.5</v>
+      <c r="E129" s="13">
+        <v>1</v>
       </c>
       <c r="F129">
         <f>VLOOKUP(A129, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E130" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E130" s="13">
         <v>1.5</v>
       </c>
       <c r="F130">
         <f>VLOOKUP(A130, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" s="1">
         <v>0.5</v>
       </c>
-      <c r="E131" s="9">
-        <v>1.5</v>
+      <c r="E131" s="13">
+        <v>2</v>
       </c>
       <c r="F131">
         <f>VLOOKUP(A131, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C132" s="2">
         <v>3</v>
       </c>
       <c r="D132" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E132" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E132" s="13">
+        <v>2</v>
       </c>
       <c r="F132">
         <f>VLOOKUP(A132, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,7 +6197,7 @@
       <c r="D133" s="1">
         <v>0.5</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="13">
         <v>1.5</v>
       </c>
       <c r="F133">
@@ -6206,49 +6207,49 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
       </c>
       <c r="D134" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E134" s="9">
-        <v>1.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E134" s="13">
+        <v>2.5</v>
       </c>
       <c r="F134">
         <f>VLOOKUP(A134, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C135" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1">
         <v>0.5</v>
       </c>
-      <c r="E135" s="9">
-        <v>1.5</v>
+      <c r="E135" s="13">
+        <v>2</v>
       </c>
       <c r="F135">
         <f>VLOOKUP(A135, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -6257,61 +6258,61 @@
         <v>3</v>
       </c>
       <c r="D136" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E136" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E136" s="13">
+        <v>2</v>
       </c>
       <c r="F136">
         <f>VLOOKUP(A136, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C137" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E137" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E137" s="13">
         <v>1.5</v>
       </c>
       <c r="F137">
         <f>VLOOKUP(A137, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E138" s="13">
+        <v>4</v>
       </c>
       <c r="F138">
         <f>VLOOKUP(A138, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -6320,329 +6321,329 @@
         <v>3</v>
       </c>
       <c r="D139" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E139" s="9">
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E139" s="13">
+        <v>2</v>
       </c>
       <c r="F139">
         <f>VLOOKUP(A139, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C140" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D140" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E140" s="9">
-        <v>1.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E140" s="13">
+        <v>2</v>
       </c>
       <c r="F140">
         <f>VLOOKUP(A140, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E141" s="9">
-        <v>1.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="E141" s="13">
+        <v>0.5</v>
       </c>
       <c r="F141">
         <f>VLOOKUP(A141, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>560</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D142" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E142" s="13">
+        <v>1</v>
       </c>
       <c r="F142">
         <f>VLOOKUP(A142, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D143" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E143" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E143" s="13">
+        <v>1</v>
       </c>
       <c r="F143">
         <f>VLOOKUP(A143, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E144" s="13">
+        <v>1.5</v>
       </c>
       <c r="F144">
         <f>VLOOKUP(A144, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E145" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E145" s="13">
+        <v>2</v>
       </c>
       <c r="F145">
         <f>VLOOKUP(A145, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E146" s="13">
+        <v>1.5</v>
       </c>
       <c r="F146">
         <f>VLOOKUP(A146, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E147" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E147" s="13">
+        <v>2</v>
       </c>
       <c r="F147">
         <f>VLOOKUP(A147, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D148" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E148" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E148" s="13">
+        <v>1</v>
       </c>
       <c r="F148">
         <f>VLOOKUP(A148, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E149" s="9">
-        <v>0.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E149" s="13">
+        <v>1.5</v>
       </c>
       <c r="F149">
         <f>VLOOKUP(A149, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C150" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E150" s="9">
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E150" s="13">
+        <v>2.5</v>
       </c>
       <c r="F150">
         <f>VLOOKUP(A150, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E151" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E151" s="13">
+        <v>4</v>
       </c>
       <c r="F151">
         <f>VLOOKUP(A151, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E152" s="13">
+        <v>4</v>
       </c>
       <c r="F152">
         <f>VLOOKUP(A152, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E153" s="9">
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E153" s="13">
+        <v>2.5</v>
       </c>
       <c r="F153">
         <f>VLOOKUP(A153, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E154" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E154" s="13">
+        <v>2</v>
       </c>
       <c r="F154">
         <f>VLOOKUP(A154, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -6658,7 +6659,7 @@
       <c r="D155" s="1">
         <v>0.25</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="13">
         <v>0.5</v>
       </c>
       <c r="F155">
@@ -6668,23 +6669,23 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C156" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E156" s="9">
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E156" s="13">
+        <v>2.5</v>
       </c>
       <c r="F156">
         <f>VLOOKUP(A156, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,7 +6701,7 @@
       <c r="D157" s="1">
         <v>0.25</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="13">
         <v>0.5</v>
       </c>
       <c r="F157">
@@ -6710,149 +6711,149 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E158" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E158" s="13">
+        <v>4</v>
       </c>
       <c r="F158">
         <f>VLOOKUP(A158, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C159" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D159" s="1">
         <v>0.8</v>
       </c>
-      <c r="E159" s="9">
-        <v>4</v>
+      <c r="E159" s="13">
+        <v>2</v>
       </c>
       <c r="F159">
         <f>VLOOKUP(A159, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D160" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E160" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E160" s="13">
+        <v>1.5</v>
       </c>
       <c r="F160">
         <f>VLOOKUP(A160, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C161" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E161" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E161" s="13">
+        <v>1</v>
       </c>
       <c r="F161">
         <f>VLOOKUP(A161, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E162" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E162" s="13">
+        <v>1.5</v>
       </c>
       <c r="F162">
         <f>VLOOKUP(A162, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C163" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E163" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E163" s="13">
+        <v>1</v>
       </c>
       <c r="F163">
         <f>VLOOKUP(A163, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C164" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E164" s="9">
-        <v>4</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E164" s="13">
+        <v>2.5</v>
       </c>
       <c r="F164">
         <f>VLOOKUP(A164, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -6868,7 +6869,7 @@
       <c r="D165" s="1">
         <v>0.8</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E165" s="13">
         <v>4</v>
       </c>
       <c r="F165">
@@ -6878,191 +6879,191 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E166" s="9">
-        <v>4</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E166" s="13">
+        <v>2.5</v>
       </c>
       <c r="F166">
         <f>VLOOKUP(A166, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C167" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D167" s="1">
         <v>0.8</v>
       </c>
-      <c r="E167" s="9">
-        <v>4</v>
+      <c r="E167" s="13">
+        <v>2</v>
       </c>
       <c r="F167">
         <f>VLOOKUP(A167, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C168" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E168" s="9">
-        <v>4</v>
+        <v>0.75</v>
+      </c>
+      <c r="E168" s="13">
+        <v>1.5</v>
       </c>
       <c r="F168">
         <f>VLOOKUP(A168, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C169" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E169" s="9">
-        <v>4</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E169" s="13">
+        <v>2.5</v>
       </c>
       <c r="F169">
         <f>VLOOKUP(A169, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C170" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E170" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E170" s="13">
+        <v>1</v>
       </c>
       <c r="F170">
         <f>VLOOKUP(A170, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C171" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E171" s="9">
-        <v>4</v>
+        <v>0.75</v>
+      </c>
+      <c r="E171" s="13">
+        <v>1.5</v>
       </c>
       <c r="F171">
         <f>VLOOKUP(A171, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E172" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E172" s="13">
+        <v>1.5</v>
       </c>
       <c r="F172">
         <f>VLOOKUP(A172, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E173" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
       </c>
       <c r="F173">
         <f>VLOOKUP(A173, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C174" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E174" s="9">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+      <c r="E174" s="13">
+        <v>2</v>
       </c>
       <c r="F174">
         <f>VLOOKUP(A174, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -7078,7 +7079,7 @@
       <c r="D175" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="13">
         <v>2.5</v>
       </c>
       <c r="F175">
@@ -7099,7 +7100,7 @@
       <c r="D176" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E176" s="9">
+      <c r="E176" s="13">
         <v>2.5</v>
       </c>
       <c r="F176">
@@ -7120,7 +7121,7 @@
       <c r="D177" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="13">
         <v>2.5</v>
       </c>
       <c r="F177">
@@ -7130,23 +7131,23 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C178" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E178" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E178" s="13">
+        <v>2</v>
       </c>
       <c r="F178">
         <f>VLOOKUP(A178, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7162,7 +7163,7 @@
       <c r="D179" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="13">
         <v>2.5</v>
       </c>
       <c r="F179">
@@ -7172,86 +7173,86 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C180" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E180" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E180" s="13">
+        <v>1</v>
       </c>
       <c r="F180">
         <f>VLOOKUP(A180, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C181" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E181" s="9">
-        <v>2.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="E181" s="13">
+        <v>0.5</v>
       </c>
       <c r="F181">
         <f>VLOOKUP(A181, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C182" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E182" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E182" s="13">
+        <v>2</v>
       </c>
       <c r="F182">
         <f>VLOOKUP(A182, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C183" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D183" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E183" s="9">
-        <v>2.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E183" s="13">
+        <v>4</v>
       </c>
       <c r="F183">
         <f>VLOOKUP(A183, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -7267,7 +7268,7 @@
       <c r="D184" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E184" s="9">
+      <c r="E184" s="13">
         <v>2.5</v>
       </c>
       <c r="F184">
@@ -7277,338 +7278,338 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C185" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D185" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E185" s="9">
-        <v>2.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E185" s="13">
+        <v>1</v>
       </c>
       <c r="F185">
         <f>VLOOKUP(A185, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C186" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D186" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E186" s="9">
-        <v>2.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E186" s="13">
+        <v>2</v>
       </c>
       <c r="F186">
         <f>VLOOKUP(A186, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C187" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D187" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E187" s="9">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="E187" s="13">
+        <v>1</v>
       </c>
       <c r="F187">
         <f>VLOOKUP(A187, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>150</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" s="2">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E188" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D188" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E188" s="9">
-        <v>2</v>
       </c>
       <c r="F188">
         <f>VLOOKUP(A188, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C189" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E189" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E189" s="13">
+        <v>0.5</v>
       </c>
       <c r="F189">
         <f>VLOOKUP(A189, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C190" s="2">
+        <v>3</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E190" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D190" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E190" s="9">
-        <v>2</v>
       </c>
       <c r="F190">
         <f>VLOOKUP(A190, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C191" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E191" s="9">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E191" s="13">
+        <v>1</v>
       </c>
       <c r="F191">
         <f>VLOOKUP(A191, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C192" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E192" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E192" s="13">
+        <v>0.5</v>
       </c>
       <c r="F192">
         <f>VLOOKUP(A192, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="2">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E193" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E193" s="9">
-        <v>2</v>
       </c>
       <c r="F193">
         <f>VLOOKUP(A193, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C194" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D194" s="1">
         <v>0.8</v>
       </c>
-      <c r="E194" s="9">
-        <v>2</v>
+      <c r="E194" s="13">
+        <v>4</v>
       </c>
       <c r="F194">
         <f>VLOOKUP(A194, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E195" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E195" s="13">
         <v>2</v>
       </c>
       <c r="F195">
         <f>VLOOKUP(A195, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C196" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E196" s="9">
-        <v>2</v>
+        <v>0.25</v>
+      </c>
+      <c r="E196" s="13">
+        <v>0.5</v>
       </c>
       <c r="F196">
         <f>VLOOKUP(A196, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C197" s="2">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E197" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E197" s="9">
-        <v>2</v>
       </c>
       <c r="F197">
         <f>VLOOKUP(A197, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C198" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E198" s="9">
-        <v>2</v>
+        <v>0.75</v>
+      </c>
+      <c r="E198" s="13">
+        <v>1.5</v>
       </c>
       <c r="F198">
         <f>VLOOKUP(A198, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="2">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E199" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E199" s="9">
-        <v>2</v>
       </c>
       <c r="F199">
         <f>VLOOKUP(A199, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C200" s="2">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E200" s="13">
         <v>2.5</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E200" s="9">
-        <v>2</v>
       </c>
       <c r="F200">
         <f>VLOOKUP(A200, Calories!$A$1:$B$15,2, FALSE)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -7618,7 +7619,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F202">
+  <sortState ref="A2:F200">
     <sortCondition ref="A2:A202"/>
     <sortCondition ref="C2:C202"/>
   </sortState>
@@ -7813,7 +7814,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22">
@@ -7852,7 +7853,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
@@ -7860,42 +7861,42 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>5560</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>11155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>7650</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
         <v>33655</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>58020</v>
       </c>
     </row>
@@ -7908,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808CBE9-7851-411C-8AD5-F345B3A644AB}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
